--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2572828.801162707</v>
+        <v>2677768.031338074</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9003316.223066833</v>
+        <v>9019633.670127466</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>323.9682659295352</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>297.4176400813329</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>119.5072213587454</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>182.9774860575327</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>266.5697612695089</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>68.75775489363906</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7220968954605</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>215.1887736778001</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>168.6014794811251</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1184,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>108.5748211465609</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>93.72082311417857</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>98.89386519651357</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>76.28317487965595</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.5757238861956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.01175877060098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>9.570729811036209</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529922</v>
       </c>
     </row>
     <row r="20">
@@ -2084,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>219.4517041866526</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>125.2193560244681</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>36.85665993310037</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>129.2171928962056</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>30.87238256912046</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>127.6065435523131</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>174.6859374605328</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>82.30974811734292</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>11.76284745948112</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>6.228861054224896</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>121.3986907513285</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>192.9787615936012</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>867.5113594131255</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>867.5113594131255</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>867.5113594131255</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176916</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431.4421061205821</v>
+        <v>687.0249717364609</v>
       </c>
       <c r="C4" t="n">
-        <v>431.4421061205821</v>
+        <v>518.088788808554</v>
       </c>
       <c r="D4" t="n">
-        <v>431.4421061205821</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E4" t="n">
-        <v>431.4421061205821</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
-        <v>284.5521586226718</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621296</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X4" t="n">
-        <v>652.2346852641123</v>
+        <v>907.817550879991</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.4421061205821</v>
+        <v>687.0249717364609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>3050.17579632305</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>2719.112908979479</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.344253709365</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1852.283970943245</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2184.354406119407</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.1078027362229</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1146.514523671201</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1146.514523671201</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W7" t="n">
-        <v>857.0973536342402</v>
+        <v>607.7747497941705</v>
       </c>
       <c r="X7" t="n">
-        <v>629.1078027362229</v>
+        <v>379.7851988961531</v>
       </c>
       <c r="Y7" t="n">
-        <v>629.1078027362229</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.418012197379</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.455495256968</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261501</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4899,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>889.9473523424593</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C10" t="n">
-        <v>721.0111694145525</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>1071.595817172699</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y10" t="n">
-        <v>1071.595817172699</v>
+        <v>773.7942044041906</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273905</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273905</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>924.6979859831855</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>1106.346450813425</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,25 +5296,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>2828.967015012344</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>3456.564978566951</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>4008.474708806239</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4432.097858301307</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4665.35951867619</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>961.4446166151475</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C19" t="n">
-        <v>792.5084336872407</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D19" t="n">
-        <v>642.3917942749049</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E19" t="n">
-        <v>494.4787006925118</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1363.885660588917</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1143.093081445387</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5731,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>94.65038286230612</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>3999.662761261516</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>915.1035305473703</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>596.0507082071276</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>448.1376146247345</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>448.1376146247345</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603201</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>2352.694863493933</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>2352.694863493933</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>2848.020469709692</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>3200.825397924058</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>3031.889214996151</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>2881.772575583815</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>2733.859482001422</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>2586.969534503512</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4409.748389488607</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>4120.673162832805</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>4120.673162832805</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3831.255992795845</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>304.7988649377482</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1578.981115722978</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.981115722978</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7165,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7491,19 +7493,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2324.338143427403</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2104.736678450344</v>
       </c>
       <c r="U46" t="n">
-        <v>1849.578742244367</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V46" t="n">
-        <v>1849.578742244367</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.161572207407</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>193.3273467878344</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15.64270034434895</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8705,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1.425815493291988e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>90.96364621897189</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.0089294658992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.5728945814938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.850318211895</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>127.7255247667956</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>66.73277020259155</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>161.3036423121229</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>181.7279934189944</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>36.30694539606324</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>186.5330677581678</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>37.91759473995575</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>77.45170586329525</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>66.30572490086944</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>213.946807929556</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.2941372823661</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>59.62759525031606</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>93.20571279564294</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>788528.8968812418</v>
+        <v>796847.595382741</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>788528.8968812418</v>
+        <v>796847.595382741</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156785</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914268</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
         <v>645717.279752005</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.2351281079</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810789</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756559</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756555</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868369.5055256673</v>
+        <v>-687582.4138164398</v>
       </c>
       <c r="C6" t="n">
-        <v>460375.2402019256</v>
+        <v>427169.3697594798</v>
       </c>
       <c r="D6" t="n">
-        <v>460375.2402019257</v>
+        <v>267748.0997615877</v>
       </c>
       <c r="E6" t="n">
-        <v>209845.087763986</v>
+        <v>209845.0877639858</v>
       </c>
       <c r="F6" t="n">
-        <v>535257.5495713415</v>
+        <v>535257.5495713416</v>
       </c>
       <c r="G6" t="n">
+        <v>535257.5495713413</v>
+      </c>
+      <c r="H6" t="n">
         <v>535257.5495713414</v>
       </c>
-      <c r="H6" t="n">
-        <v>535257.5495713411</v>
-      </c>
       <c r="I6" t="n">
-        <v>535257.5495713411</v>
+        <v>535257.5495713414</v>
       </c>
       <c r="J6" t="n">
-        <v>317726.347174064</v>
+        <v>367652.371761359</v>
       </c>
       <c r="K6" t="n">
-        <v>535257.5495713411</v>
+        <v>535257.5495713416</v>
       </c>
       <c r="L6" t="n">
-        <v>535257.5495713413</v>
+        <v>486963.5795631507</v>
       </c>
       <c r="M6" t="n">
-        <v>450202.5216358296</v>
+        <v>450202.5216358294</v>
       </c>
       <c r="N6" t="n">
-        <v>535257.5495713415</v>
+        <v>535257.5495713416</v>
       </c>
       <c r="O6" t="n">
         <v>535257.5495713414</v>
       </c>
       <c r="P6" t="n">
-        <v>535257.5495713411</v>
+        <v>535257.5495713413</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>57.96210414272656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>72.3134605971361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>46.51858690028286</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>42.73216933150448</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>116.1640803939717</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>182.2374170652629</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>11.4897413101524</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>71.33422465879087</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>186.0815621395579</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>261.1562795319081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.89464990403378</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>119.6907881555812</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>459.1396705889904</v>
       </c>
       <c r="M12" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399236</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179083</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286702</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>307.9814458135821</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>152.5685698206132</v>
+        <v>249.1672590991324</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>243.172991359853</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>272.7569329364655</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>163.572382128305</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34213,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>584.5244463807084</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>132.1234226752035</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>320.5852908091162</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3485648394727</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565903</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.73094315394433</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>425.4542490066519</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>169.427066033708</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>25.73094315394657</v>
+        <v>122.3296324324657</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>134.2025531565913</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2677768.031338074</v>
+        <v>2673672.389833307</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9019633.670127466</v>
+        <v>9019633.670127464</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>323.9682659295352</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>295.767831113157</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>7.558237365719971</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.9774860575327</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.5697612695089</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>284.2403399280684</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>104.1908179651605</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>215.1887736778001</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>301.2402584038907</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>108.5748211465609</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.29200062050054</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.89386519651357</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>76.28317487965595</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>179.4684961233926</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605717069</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.85912858529922</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>219.4517041866526</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>125.2193560244681</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.85665993310037</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>129.2171928962056</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>30.87238256912046</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>127.6065435523131</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>11.76284745948112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>6.228861054224896</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>121.3986907513285</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>867.5113594131255</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C2" t="n">
-        <v>867.5113594131255</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="D2" t="n">
-        <v>867.5113594131255</v>
+        <v>1146.77632891864</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>760.9880763203955</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>350.002171530788</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>687.0249717364609</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="C4" t="n">
-        <v>518.088788808554</v>
+        <v>503.8010502583393</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9721493962183</v>
+        <v>353.6844108460035</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>205.7713172636104</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>58.88136976570004</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4488,25 +4488,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X4" t="n">
-        <v>907.817550879991</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="Y4" t="n">
-        <v>687.0249717364609</v>
+        <v>672.7372331862462</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.918698535759</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9561815953474</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656475</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.181083656475</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1416.181083656475</v>
+        <v>736.6224273402283</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1852.283970943245</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2184.354406119407</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2431.537139951703</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659135</v>
+        <v>452.1188826722664</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>452.1188826722664</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>452.1188826722664</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>452.1188826722664</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>305.228935174356</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
         <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>825.137147448514</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="W7" t="n">
-        <v>607.7747497941705</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="X7" t="n">
-        <v>379.7851988961531</v>
+        <v>854.5599266460363</v>
       </c>
       <c r="Y7" t="n">
-        <v>379.7851988961531</v>
+        <v>633.7673475025061</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.303849668961</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.164517693149</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1884.575355542532</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>773.7942044041906</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249848</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.6979859831855</v>
+        <v>781.3544215660706</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1106.346450813425</v>
+        <v>963.0028863963104</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,13 +5293,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2231.588527385792</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>2828.967015012344</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3456.564978566951</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4008.474708806239</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4432.097858301307</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4665.35951867619</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.8692823226939</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>473.9330993947871</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.5177471529337</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.662761261516</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.978273055629</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>915.1035305473703</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>746.1673476194634</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>596.0507082071276</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>448.1376146247345</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>448.1376146247345</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473703</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,22 +6718,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2352.694863493933</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2352.694863493933</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2848.020469709692</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3445.398957336244</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3200.825397924058</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3031.889214996151</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583815</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001422</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503512</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218392</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4409.748389488607</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4120.673162832805</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>4120.673162832805</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3831.255992795845</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.266441897827</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3382.473862754297</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459586</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180517</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>599.6019060180517</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>451.6888124356586</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>304.7988649377482</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761984</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>641.1291986799072</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2324.338143427403</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2104.736678450344</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1815.661451794542</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1560.976963588655</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1271.559793551694</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1043.570242653677</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.7776635101469</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878344</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.64270034434895</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.425815493291988e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>90.96364621897189</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>39.11615722870224</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.7255247667956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>66.73277020259155</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>161.3036423121229</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.7279934189944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>36.30694539606324</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>186.5330677581678</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>37.91759473995575</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.2941372823661</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>59.62759525031606</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156785</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="K2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520048</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810795</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756559</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756533</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.200356756552</v>
-      </c>
       <c r="H4" t="n">
-        <v>9337.200356756555</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26459,7 +26459,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-687582.4138164398</v>
+        <v>-687582.4138164396</v>
       </c>
       <c r="C6" t="n">
-        <v>427169.3697594798</v>
+        <v>427169.3697594797</v>
       </c>
       <c r="D6" t="n">
-        <v>267748.0997615877</v>
+        <v>267748.0997615879</v>
       </c>
       <c r="E6" t="n">
-        <v>209845.0877639858</v>
+        <v>209497.7085096287</v>
       </c>
       <c r="F6" t="n">
-        <v>535257.5495713416</v>
+        <v>534910.1703169844</v>
       </c>
       <c r="G6" t="n">
-        <v>535257.5495713413</v>
+        <v>534910.1703169844</v>
       </c>
       <c r="H6" t="n">
-        <v>535257.5495713414</v>
+        <v>534910.1703169842</v>
       </c>
       <c r="I6" t="n">
-        <v>535257.5495713414</v>
+        <v>534910.1703169842</v>
       </c>
       <c r="J6" t="n">
-        <v>367652.371761359</v>
+        <v>367304.9925070019</v>
       </c>
       <c r="K6" t="n">
-        <v>535257.5495713416</v>
+        <v>534910.1703169841</v>
       </c>
       <c r="L6" t="n">
-        <v>486963.5795631507</v>
+        <v>486616.2003087934</v>
       </c>
       <c r="M6" t="n">
-        <v>450202.5216358294</v>
+        <v>449855.1423814721</v>
       </c>
       <c r="N6" t="n">
-        <v>535257.5495713416</v>
+        <v>534910.1703169841</v>
       </c>
       <c r="O6" t="n">
-        <v>535257.5495713414</v>
+        <v>534910.1703169842</v>
       </c>
       <c r="P6" t="n">
-        <v>535257.5495713413</v>
+        <v>534910.1703169842</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57.96210414272656</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>115.779871659797</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>158.7483626790842</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>42.73216933150448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116.1640803939717</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>122.635705813643</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>62.11578207964365</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>71.33422465879087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>53.44278321679224</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>261.1562795319081</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.4770247109414</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.6907881555812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>459.1396705889904</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>265.5442652399236</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179083</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>567.5882829286702</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>491.5977325265315</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>307.9814458135821</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>249.1672590991324</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>243.172991359853</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807084</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>132.1234226752035</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>320.5852908091162</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>134.2025531565903</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394433</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>425.4542490066519</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>349.0014880820871</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>169.427066033708</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>122.3296324324657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>116.3353646931863</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>25.73094315394599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2673672.389833307</v>
+        <v>2675432.920136093</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>320.4203664982848</v>
       </c>
       <c r="G2" t="n">
-        <v>295.767831113157</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.26724005175</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>7.558237365719971</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>284.2403399280684</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>200.6323323758532</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>104.1908179651605</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.9807481254283</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>301.2402584038907</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>268.4527559423135</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>94.29644372182837</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>42.29200062050054</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.4684961233926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>44.30292280757602</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1505.04202752539</v>
+        <v>1215.24782047143</v>
       </c>
       <c r="C2" t="n">
-        <v>1505.04202752539</v>
+        <v>1215.24782047143</v>
       </c>
       <c r="D2" t="n">
-        <v>1146.77632891864</v>
+        <v>856.9821218646791</v>
       </c>
       <c r="E2" t="n">
-        <v>760.9880763203955</v>
+        <v>856.9821218646791</v>
       </c>
       <c r="F2" t="n">
-        <v>350.002171530788</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4345,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>1601.847660535551</v>
       </c>
       <c r="Y2" t="n">
-        <v>1505.04202752539</v>
+        <v>1601.847660535551</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>672.7372331862462</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C4" t="n">
-        <v>503.8010502583393</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D4" t="n">
-        <v>353.6844108460035</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E4" t="n">
-        <v>205.7713172636104</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>58.88136976570004</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>962.1544032232067</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>672.7372331862462</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>672.7372331862462</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>672.7372331862462</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.0225872761065</v>
+        <v>1033.854129889793</v>
       </c>
       <c r="C5" t="n">
-        <v>350.0225872761065</v>
+        <v>664.8916129493816</v>
       </c>
       <c r="D5" t="n">
-        <v>350.0225872761065</v>
+        <v>664.8916129493816</v>
       </c>
       <c r="E5" t="n">
-        <v>350.0225872761065</v>
+        <v>664.8916129493816</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>253.9057081597741</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.76175931604</v>
+        <v>1810.593301929727</v>
       </c>
       <c r="Y5" t="n">
-        <v>736.6224273402283</v>
+        <v>1420.453969953915</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.1188826722664</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>452.1188826722664</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>452.1188826722664</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>452.1188826722664</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.228935174356</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544054</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.549477544054</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>854.5599266460363</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.7673475025061</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032429</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C8" t="n">
-        <v>1624.638712032429</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>379.6734151344455</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539435</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008241</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032429</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>628.7269654071711</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>459.7907824792642</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>309.6741430669284</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>161.7610494845353</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1884.575355542532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1662.808740112058</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1662.808740112058</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1408.124251906171</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>810.3754302374108</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,37 +5029,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,7 +5117,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660706</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381638</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381638</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557706</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963104</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5302,10 +5302,10 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5755,7 +5755,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6882,7 +6882,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6928,7 +6928,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7314,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.11615722870224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914273</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520047</v>
@@ -26346,7 +26346,7 @@
         <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520047</v>
@@ -26355,7 +26355,7 @@
         <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921024</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810795</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756533</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
@@ -26441,16 +26441,16 @@
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.20035675663</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-687582.4138164396</v>
+        <v>-687582.4138164397</v>
       </c>
       <c r="C6" t="n">
-        <v>427169.3697594797</v>
+        <v>427169.36975948</v>
       </c>
       <c r="D6" t="n">
-        <v>267748.0997615879</v>
+        <v>267748.0997615877</v>
       </c>
       <c r="E6" t="n">
-        <v>209497.7085096287</v>
+        <v>209810.3498385501</v>
       </c>
       <c r="F6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="G6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459054</v>
       </c>
       <c r="H6" t="n">
-        <v>534910.1703169842</v>
+        <v>535222.8116459055</v>
       </c>
       <c r="I6" t="n">
-        <v>534910.1703169842</v>
+        <v>535222.8116459055</v>
       </c>
       <c r="J6" t="n">
-        <v>367304.9925070019</v>
+        <v>367617.6338359226</v>
       </c>
       <c r="K6" t="n">
-        <v>534910.1703169841</v>
+        <v>535222.8116459053</v>
       </c>
       <c r="L6" t="n">
-        <v>486616.2003087934</v>
+        <v>486928.8416377146</v>
       </c>
       <c r="M6" t="n">
-        <v>449855.1423814721</v>
+        <v>450167.7837103937</v>
       </c>
       <c r="N6" t="n">
-        <v>534910.1703169841</v>
+        <v>535222.8116459054</v>
       </c>
       <c r="O6" t="n">
-        <v>534910.1703169842</v>
+        <v>535222.8116459055</v>
       </c>
       <c r="P6" t="n">
-        <v>534910.1703169842</v>
+        <v>535222.8116459056</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86.45567924342663</v>
       </c>
       <c r="G2" t="n">
-        <v>115.779871659797</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.56474013018726</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>158.7483626790842</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>122.635705813643</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>210.9153703971008</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11578207964365</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983997</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>53.44278321679224</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>142.4689697111399</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>51.12460430110288</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>147.4770247109414</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215496</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
